--- a/experiment/quadratic/ex9_2_5/compare/C-Estacionario/ex9_2_5_C-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_5/compare/C-Estacionario/ex9_2_5_C-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-42.897527787919344</v>
       </c>
       <c r="E2">
-        <v>0.01024164</v>
+        <v>0.008728759</v>
       </c>
       <c r="F2">
-        <v>0.0187686</v>
+        <v>0.041776776</v>
       </c>
       <c r="G2">
-        <v>0.012751938826530612</v>
+        <v>0.011993493127098322</v>
       </c>
       <c r="H2">
         <v>2304</v>
@@ -514,13 +514,13 @@
         <v>-42.89752801906522</v>
       </c>
       <c r="E3">
-        <v>0.00268884</v>
+        <v>0.002878031</v>
       </c>
       <c r="F3">
-        <v>0.00756198</v>
+        <v>0.013948042</v>
       </c>
       <c r="G3">
-        <v>0.0033136798706896553</v>
+        <v>0.003723685645786726</v>
       </c>
       <c r="H3">
         <v>3604</v>
